--- a/GF_X-master/AAAGameData/Languages/Korean.xlsx
+++ b/GF_X-master/AAAGameData/Languages/Korean.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>BRAKE</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>가져오기</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Level.DisplayName1</t>
@@ -207,7 +213,10 @@
     <t>test</t>
   </si>
   <si>
-    <t/>
+    <t>테스트</t>
+  </si>
+  <si>
+    <t>test2</t>
   </si>
   <si>
     <t>UNLOCK</t>
@@ -340,6 +349,14 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
@@ -2863,6 +2880,338 @@
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
@@ -2879,179 +3228,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A1" id="1052">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1052"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr rtl="0" algn="l">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>锁定</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
-          <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A2" id="1053">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1053"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr rtl="0" algn="l">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>锁定</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
-          <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A3" id="1054">
+            <xdr:cNvPr hidden="1" name="A1" id="1054">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1054"/>
@@ -3126,18 +3303,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>3</xdr:row>
+          <xdr:row>1</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A4" id="1055">
+            <xdr:cNvPr hidden="1" name="A2" id="1055">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1055"/>
@@ -3212,18 +3389,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>5</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A5" id="1056">
+            <xdr:cNvPr hidden="1" name="A3" id="1056">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1056"/>
@@ -3298,18 +3475,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>5</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>6</xdr:row>
+          <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A6" id="1057">
+            <xdr:cNvPr hidden="1" name="A4" id="1057">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1057"/>
@@ -3384,18 +3561,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>6</xdr:row>
+          <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>7</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A7" id="1058">
+            <xdr:cNvPr hidden="1" name="A5" id="1058">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1058"/>
@@ -3470,18 +3647,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>8</xdr:row>
+          <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A8" id="1059">
+            <xdr:cNvPr hidden="1" name="A6" id="1059">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1059"/>
@@ -3556,18 +3733,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>8</xdr:row>
+          <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>9</xdr:row>
+          <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A9" id="1060">
+            <xdr:cNvPr hidden="1" name="A7" id="1060">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1060"/>
@@ -3642,18 +3819,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>9</xdr:row>
+          <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>10</xdr:row>
+          <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A10" id="1061">
+            <xdr:cNvPr hidden="1" name="A8" id="1061">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1061"/>
@@ -3728,18 +3905,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>10</xdr:row>
+          <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>11</xdr:row>
+          <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A11" id="1062">
+            <xdr:cNvPr hidden="1" name="A9" id="1062">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1062"/>
@@ -3814,18 +3991,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>11</xdr:row>
+          <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>12</xdr:row>
+          <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A12" id="1063">
+            <xdr:cNvPr hidden="1" name="A10" id="1063">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1063"/>
@@ -3900,18 +4077,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>12</xdr:row>
+          <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>13</xdr:row>
+          <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A13" id="1064">
+            <xdr:cNvPr hidden="1" name="A11" id="1064">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1064"/>
@@ -3986,18 +4163,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>13</xdr:row>
+          <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>14</xdr:row>
+          <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A14" id="1065">
+            <xdr:cNvPr hidden="1" name="A12" id="1065">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1065"/>
@@ -4072,18 +4249,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>14</xdr:row>
+          <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>15</xdr:row>
+          <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A15" id="1066">
+            <xdr:cNvPr hidden="1" name="A13" id="1066">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1066"/>
@@ -4158,18 +4335,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>15</xdr:row>
+          <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>16</xdr:row>
+          <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A16" id="1067">
+            <xdr:cNvPr hidden="1" name="A14" id="1067">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1067"/>
@@ -4244,18 +4421,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>16</xdr:row>
+          <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>17</xdr:row>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A17" id="1068">
+            <xdr:cNvPr hidden="1" name="A15" id="1068">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1068"/>
@@ -4330,18 +4507,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>17</xdr:row>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>18</xdr:row>
+          <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A18" id="1069">
+            <xdr:cNvPr hidden="1" name="A16" id="1069">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1069"/>
@@ -4416,18 +4593,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>18</xdr:row>
+          <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>19</xdr:row>
+          <xdr:row>17</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A19" id="1070">
+            <xdr:cNvPr hidden="1" name="A17" id="1070">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1070"/>
@@ -4502,18 +4679,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>19</xdr:row>
+          <xdr:row>17</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>20</xdr:row>
+          <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A20" id="1071">
+            <xdr:cNvPr hidden="1" name="A18" id="1071">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1071"/>
@@ -4588,18 +4765,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>20</xdr:row>
+          <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>21</xdr:row>
+          <xdr:row>19</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A21" id="1072">
+            <xdr:cNvPr hidden="1" name="A19" id="1072">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1072"/>
@@ -4674,18 +4851,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>21</xdr:row>
+          <xdr:row>19</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>22</xdr:row>
+          <xdr:row>20</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A22" id="1073">
+            <xdr:cNvPr hidden="1" name="A20" id="1073">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1073"/>
@@ -4760,18 +4937,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>22</xdr:row>
+          <xdr:row>20</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>23</xdr:row>
+          <xdr:row>21</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A23" id="1074">
+            <xdr:cNvPr hidden="1" name="A21" id="1074">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1074"/>
@@ -4846,18 +5023,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>23</xdr:row>
+          <xdr:row>21</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>24</xdr:row>
+          <xdr:row>22</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A24" id="1075">
+            <xdr:cNvPr hidden="1" name="A22" id="1075">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1075"/>
@@ -4932,18 +5109,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>24</xdr:row>
+          <xdr:row>22</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>25</xdr:row>
+          <xdr:row>23</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A25" id="1076">
+            <xdr:cNvPr hidden="1" name="A23" id="1076">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1076"/>
@@ -5018,18 +5195,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>25</xdr:row>
+          <xdr:row>23</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>26</xdr:row>
+          <xdr:row>24</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A26" id="1077">
+            <xdr:cNvPr hidden="1" name="A24" id="1077">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1077"/>
@@ -5104,18 +5281,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>26</xdr:row>
+          <xdr:row>24</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>27</xdr:row>
+          <xdr:row>25</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A27" id="1078">
+            <xdr:cNvPr hidden="1" name="A25" id="1078">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1078"/>
@@ -5184,12 +5361,356 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="" fLocksText="1">
+          <xdr:nvSpPr>
+            <xdr:cNvPr hidden="1" name="A26" id="1079">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1079"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off y="0" x="0"/>
+              <a:ext cy="0" cx="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr rtl="0" algn="l">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="" fLocksText="1">
+          <xdr:nvSpPr>
+            <xdr:cNvPr hidden="1" name="A27" id="1080">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1080"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off y="0" x="0"/>
+              <a:ext cy="0" cx="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr rtl="0" algn="l">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="" fLocksText="1">
+          <xdr:nvSpPr>
+            <xdr:cNvPr hidden="1" name="A28" id="1081">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1081"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off y="0" x="0"/>
+              <a:ext cy="0" cx="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr rtl="0" algn="l">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="" fLocksText="1">
+          <xdr:nvSpPr>
+            <xdr:cNvPr hidden="1" name="A29" id="1082">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1082"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off y="0" x="0"/>
+              <a:ext cy="0" cx="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr rtl="0" algn="l">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5413,16 +5934,16 @@
         <v>46</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1"/>
       <c r="B25" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26">
@@ -5443,6 +5964,24 @@
         <v>52</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" s="1"/>
+      <c r="B28" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1"/>
+      <c r="B29" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -5452,7 +5991,7 @@
       <controls xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1052" r:id="rId600" name="A1">
+            <control shapeId="1054" r:id="rId680" name="A1">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5474,7 +6013,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1053" r:id="rId601" name="A2">
+            <control shapeId="1055" r:id="rId681" name="A2">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5496,7 +6035,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1054" r:id="rId602" name="A3">
+            <control shapeId="1056" r:id="rId682" name="A3">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5518,7 +6057,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1055" r:id="rId603" name="A4">
+            <control shapeId="1057" r:id="rId683" name="A4">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5540,7 +6079,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1056" r:id="rId604" name="A5">
+            <control shapeId="1058" r:id="rId684" name="A5">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5562,7 +6101,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1057" r:id="rId605" name="A6">
+            <control shapeId="1059" r:id="rId685" name="A6">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5584,7 +6123,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1058" r:id="rId606" name="A7">
+            <control shapeId="1060" r:id="rId686" name="A7">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5606,7 +6145,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1059" r:id="rId607" name="A8">
+            <control shapeId="1061" r:id="rId687" name="A8">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5628,7 +6167,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1060" r:id="rId608" name="A9">
+            <control shapeId="1062" r:id="rId688" name="A9">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5650,7 +6189,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1061" r:id="rId609" name="A10">
+            <control shapeId="1063" r:id="rId689" name="A10">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5672,7 +6211,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1062" r:id="rId610" name="A11">
+            <control shapeId="1064" r:id="rId690" name="A11">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5694,7 +6233,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1063" r:id="rId611" name="A12">
+            <control shapeId="1065" r:id="rId691" name="A12">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5716,7 +6255,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1064" r:id="rId612" name="A13">
+            <control shapeId="1066" r:id="rId692" name="A13">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5738,7 +6277,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1065" r:id="rId613" name="A14">
+            <control shapeId="1067" r:id="rId693" name="A14">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5760,7 +6299,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1066" r:id="rId614" name="A15">
+            <control shapeId="1068" r:id="rId694" name="A15">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5782,7 +6321,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1067" r:id="rId615" name="A16">
+            <control shapeId="1069" r:id="rId695" name="A16">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5804,7 +6343,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1068" r:id="rId616" name="A17">
+            <control shapeId="1070" r:id="rId696" name="A17">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5826,7 +6365,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1069" r:id="rId617" name="A18">
+            <control shapeId="1071" r:id="rId697" name="A18">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5848,7 +6387,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1070" r:id="rId618" name="A19">
+            <control shapeId="1072" r:id="rId698" name="A19">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5870,7 +6409,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1071" r:id="rId619" name="A20">
+            <control shapeId="1073" r:id="rId699" name="A20">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5892,7 +6431,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1072" r:id="rId620" name="A21">
+            <control shapeId="1074" r:id="rId700" name="A21">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5914,7 +6453,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1073" r:id="rId621" name="A22">
+            <control shapeId="1075" r:id="rId701" name="A22">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5936,7 +6475,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1074" r:id="rId622" name="A23">
+            <control shapeId="1076" r:id="rId702" name="A23">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5958,7 +6497,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1075" r:id="rId623" name="A24">
+            <control shapeId="1077" r:id="rId703" name="A24">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5980,7 +6519,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1076" r:id="rId624" name="A25">
+            <control shapeId="1078" r:id="rId704" name="A25">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6002,7 +6541,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1077" r:id="rId625" name="A26">
+            <control shapeId="1079" r:id="rId705" name="A26">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6024,7 +6563,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1078" r:id="rId626" name="A27">
+            <control shapeId="1080" r:id="rId706" name="A27">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6044,6 +6583,50 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent>
+          <mc:Choice Requires="x14">
+            <control shapeId="1081" r:id="rId707" name="A28">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>28</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent>
+          <mc:Choice Requires="x14">
+            <control shapeId="1082" r:id="rId708" name="A29">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>28</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>29</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </Choice>
   </AlternateContent>
